--- a/data/trans_orig/P14A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08AB9708-83DB-44F2-B47E-77B9405FDBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9820550-9EFE-4B79-9E07-E3A6C6314B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAFFC39D-C161-4B6A-9F07-F339A352326B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57FC3B6D-16BD-48B7-8885-FC5B185A7684}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="198">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -147,19 +147,19 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -168,19 +168,19 @@
     <t>21,31%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -189,25 +189,25 @@
     <t>72,04%</t>
   </si>
   <si>
-    <t>30,66%</t>
+    <t>29,62%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>46,04%</t>
+    <t>47,3%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>69,34%</t>
+    <t>70,38%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>53,96%</t>
+    <t>52,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -231,7 +231,7 @@
     <t>86,89%</t>
   </si>
   <si>
-    <t>39,77%</t>
+    <t>40,75%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -240,13 +240,13 @@
     <t>94,05%</t>
   </si>
   <si>
-    <t>72,61%</t>
+    <t>72,31%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>60,23%</t>
+    <t>59,25%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -255,7 +255,7 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>27,39%</t>
+    <t>27,69%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -267,16 +267,16 @@
     <t>66,83%</t>
   </si>
   <si>
-    <t>19,04%</t>
+    <t>19,98%</t>
   </si>
   <si>
     <t>66,04%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>35,56%</t>
@@ -285,64 +285,64 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>80,96%</t>
+    <t>80,02%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>77,06%</t>
+    <t>75,85%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>24,15%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -357,19 +357,19 @@
     <t>56,02%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>45,41%</t>
@@ -378,19 +378,19 @@
     <t>43,98%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
   </si>
   <si>
     <t>49,57%</t>
@@ -417,7 +417,7 @@
     <t>81,79%</t>
   </si>
   <si>
-    <t>21,97%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>44,23%</t>
@@ -426,7 +426,7 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>78,03%</t>
+    <t>76,16%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -435,19 +435,16 @@
     <t>72,29%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>45,1%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -456,19 +453,16 @@
     <t>27,71%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>54,9%</t>
   </si>
   <si>
     <t>74,87%</t>
@@ -486,10 +480,7 @@
     <t>43,33%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>86,02%</t>
   </si>
   <si>
     <t>61,89%</t>
@@ -501,10 +492,7 @@
     <t>56,67%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>74,74%</t>
@@ -567,10 +555,10 @@
     <t>81,28%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>43,93%</t>
@@ -585,64 +573,64 @@
     <t>18,72%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7FB0ED-2D72-4C7C-881E-9BBDADD9CC8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD8ED-7525-40C0-9C88-349A9CDE5CAC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2567,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45FC6C3-8E70-4A54-98DB-24CDA179CBBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B99646-C8A0-4CFE-B264-D02BAF1E99B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3180,7 @@
         <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,7 +3201,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3222,13 +3210,13 @@
         <v>3188</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3237,13 +3225,13 @@
         <v>3188</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,7 +3312,7 @@
         <v>3136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>19</v>
@@ -3339,7 +3327,7 @@
         <v>3136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>19</v>
@@ -3373,7 +3361,7 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
@@ -3388,7 +3376,7 @@
         <v>1053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
@@ -3460,7 +3448,7 @@
         <v>993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
@@ -3475,7 +3463,7 @@
         <v>2200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -3490,13 +3478,13 @@
         <v>3194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,7 +3499,7 @@
         <v>1613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
@@ -3526,7 +3514,7 @@
         <v>2565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -3541,13 +3529,13 @@
         <v>4177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,10 +3603,10 @@
         <v>3123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3630,13 +3618,13 @@
         <v>8664</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3645,13 +3633,13 @@
         <v>11786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3654,13 @@
         <v>1055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3681,13 +3669,13 @@
         <v>3354</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3696,13 +3684,13 @@
         <v>4409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3758,13 @@
         <v>4214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3800,13 +3788,13 @@
         <v>14337</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3809,13 @@
         <v>3302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3851,13 +3839,13 @@
         <v>3302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3913,13 @@
         <v>16028</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -3940,13 +3928,13 @@
         <v>41502</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -3955,13 +3943,13 @@
         <v>57529</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3964,13 @@
         <v>9376</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3991,13 +3979,13 @@
         <v>14230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -4006,13 +3994,13 @@
         <v>23607</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A05-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9820550-9EFE-4B79-9E07-E3A6C6314B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A4FA2B-8E99-4C6E-804C-E2FE188BE4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57FC3B6D-16BD-48B7-8885-FC5B185A7684}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34625FE4-98F5-4793-957C-147A59B4EED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="204">
   <si>
     <t>Población que recibe medicación o terapia por colitis en 2012 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -120,24 +120,30 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>31,0%</t>
+    <t>15,79%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>34,58%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
+    <t>84,21%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
+    <t>64,81%</t>
+  </si>
+  <si>
     <t>Granada</t>
   </si>
   <si>
@@ -147,19 +153,19 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -168,19 +174,19 @@
     <t>21,31%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -189,25 +195,25 @@
     <t>72,04%</t>
   </si>
   <si>
-    <t>29,62%</t>
+    <t>29,07%</t>
   </si>
   <si>
     <t>79,27%</t>
   </si>
   <si>
-    <t>47,3%</t>
+    <t>40,43%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>70,38%</t>
+    <t>70,93%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>59,57%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -240,7 +246,7 @@
     <t>94,05%</t>
   </si>
   <si>
-    <t>72,31%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>13,11%</t>
@@ -255,7 +261,7 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>27,69%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -267,16 +273,16 @@
     <t>66,83%</t>
   </si>
   <si>
-    <t>19,98%</t>
+    <t>19,76%</t>
   </si>
   <si>
     <t>66,04%</t>
   </si>
   <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>35,56%</t>
@@ -285,70 +291,70 @@
     <t>33,17%</t>
   </si>
   <si>
-    <t>80,02%</t>
+    <t>80,24%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>75,85%</t>
+    <t>76,08%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
   <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>24,15%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por colitis en 2015 (Tasa respuesta: 1,11%)</t>
+    <t>Población que recibe medicación o terapia por colitis en 2016 (Tasa respuesta: 1,11%)</t>
   </si>
   <si>
     <t>54,59%</t>
@@ -357,19 +363,19 @@
     <t>56,02%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>45,41%</t>
@@ -378,19 +384,19 @@
     <t>43,98%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>44,58%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>49,57%</t>
@@ -399,7 +405,7 @@
     <t>82,58%</t>
   </si>
   <si>
-    <t>29,13%</t>
+    <t>31,69%</t>
   </si>
   <si>
     <t>50,43%</t>
@@ -408,7 +414,7 @@
     <t>17,42%</t>
   </si>
   <si>
-    <t>70,87%</t>
+    <t>68,31%</t>
   </si>
   <si>
     <t>55,77%</t>
@@ -417,7 +423,7 @@
     <t>81,79%</t>
   </si>
   <si>
-    <t>23,84%</t>
+    <t>19,65%</t>
   </si>
   <si>
     <t>44,23%</t>
@@ -426,7 +432,7 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>76,16%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -435,16 +441,16 @@
     <t>72,29%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>44,07%</t>
   </si>
   <si>
     <t>74,45%</t>
   </si>
   <si>
-    <t>45,1%</t>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -453,24 +459,30 @@
     <t>27,71%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>55,93%</t>
   </si>
   <si>
     <t>25,55%</t>
   </si>
   <si>
-    <t>54,9%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
+    <t>23,6%</t>
+  </si>
+  <si>
     <t>25,13%</t>
   </si>
   <si>
+    <t>76,4%</t>
+  </si>
+  <si>
     <t>38,11%</t>
   </si>
   <si>
@@ -480,7 +492,10 @@
     <t>43,33%</t>
   </si>
   <si>
-    <t>86,02%</t>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>61,89%</t>
@@ -492,7 +507,10 @@
     <t>56,67%</t>
   </si>
   <si>
-    <t>13,98%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>74,74%</t>
@@ -504,16 +522,16 @@
     <t>72,09%</t>
   </si>
   <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>72,77%</t>
   </si>
   <si>
-    <t>45,22%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>92,88%</t>
@@ -528,10 +546,10 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
   </si>
   <si>
     <t>27,23%</t>
@@ -540,13 +558,13 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>54,78%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>17,25%</t>
+    <t>17,55%</t>
   </si>
   <si>
     <t>88,05%</t>
@@ -555,10 +573,10 @@
     <t>81,28%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>43,93%</t>
@@ -567,70 +585,70 @@
     <t>11,95%</t>
   </si>
   <si>
-    <t>82,75%</t>
+    <t>82,45%</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
   </si>
   <si>
     <t>70,9%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEAD8ED-7525-40C0-9C88-349A9CDE5CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BA3581-0DBE-494F-8809-0777896714DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,13 +1542,13 @@
         <v>2173</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1539,13 +1557,13 @@
         <v>2173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,7 +1619,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1616,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -1628,13 +1646,13 @@
         <v>14254</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1643,13 +1661,13 @@
         <v>18154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,7 +1688,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1679,13 +1697,13 @@
         <v>3861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1694,13 +1712,13 @@
         <v>3861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,7 +1774,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1771,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1783,10 +1801,10 @@
         <v>6781</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1798,10 +1816,10 @@
         <v>10067</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1825,7 +1843,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1834,13 +1852,13 @@
         <v>2632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1849,13 +1867,13 @@
         <v>2632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,7 +1929,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1926,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -1941,7 +1959,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -1956,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1980,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1995,7 +2013,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2010,7 +2028,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2084,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2078,10 +2096,10 @@
         <v>7095</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -2096,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -2108,10 +2126,10 @@
         <v>16928</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -2129,13 +2147,13 @@
         <v>1071</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2150,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2159,13 +2177,13 @@
         <v>1071</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,7 +2239,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2233,7 +2251,7 @@
         <v>2052</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>19</v>
@@ -2248,10 +2266,10 @@
         <v>4290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2263,13 +2281,13 @@
         <v>6341</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,7 +2302,7 @@
         <v>1132</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
@@ -2299,13 +2317,13 @@
         <v>2129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2314,13 +2332,13 @@
         <v>3261</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,10 +2406,10 @@
         <v>26562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2403,13 +2421,13 @@
         <v>51935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>70</v>
@@ -2418,13 +2436,13 @@
         <v>78497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,13 +2457,13 @@
         <v>2203</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -2454,13 +2472,13 @@
         <v>10795</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -2469,13 +2487,13 @@
         <v>12998</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2549,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B99646-C8A0-4CFE-B264-D02BAF1E99B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFEAE85-E7A6-40FC-973D-FA478C9FA0B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2572,7 +2590,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2679,7 +2697,7 @@
         <v>2852</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>19</v>
@@ -2694,13 +2712,13 @@
         <v>4060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2709,13 +2727,13 @@
         <v>6911</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2748,7 @@
         <v>2372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
@@ -2745,13 +2763,13 @@
         <v>3187</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2760,13 +2778,13 @@
         <v>5559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,7 +2852,7 @@
         <v>1017</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>19</v>
@@ -2852,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2864,10 +2882,10 @@
         <v>4902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2885,7 +2903,7 @@
         <v>1034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
@@ -2906,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2915,13 +2933,13 @@
         <v>1034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,7 +3010,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3004,7 +3022,7 @@
         <v>1115</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>19</v>
@@ -3019,10 +3037,10 @@
         <v>3973</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3046,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3055,7 +3073,7 @@
         <v>885</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -3070,13 +3088,13 @@
         <v>884</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,7 +3150,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3147,7 +3165,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3159,13 +3177,13 @@
         <v>8317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3174,13 +3192,13 @@
         <v>9290</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3210,13 +3228,13 @@
         <v>3188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3225,13 +3243,13 @@
         <v>3188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,7 +3305,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3312,10 +3330,10 @@
         <v>3136</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3327,10 +3345,10 @@
         <v>3136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3361,13 +3379,13 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3376,13 +3394,13 @@
         <v>1053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3454,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3448,7 +3466,7 @@
         <v>993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>19</v>
@@ -3463,7 +3481,7 @@
         <v>2200</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -3478,13 +3496,13 @@
         <v>3194</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,7 +3517,7 @@
         <v>1613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
@@ -3514,7 +3532,7 @@
         <v>2565</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -3529,13 +3547,13 @@
         <v>4177</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3609,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3603,10 +3621,10 @@
         <v>3123</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3618,13 +3636,13 @@
         <v>8664</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3633,13 +3651,13 @@
         <v>11786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>1055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3669,13 +3687,13 @@
         <v>3354</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3684,13 +3702,13 @@
         <v>4409</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3764,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3758,13 +3776,13 @@
         <v>4214</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3776,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3788,13 +3806,13 @@
         <v>14337</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3827,13 @@
         <v>3302</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3830,7 +3848,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3839,13 +3857,13 @@
         <v>3302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3931,13 @@
         <v>16028</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -3928,13 +3946,13 @@
         <v>41502</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -3943,13 +3961,13 @@
         <v>57529</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3982,13 @@
         <v>9376</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -3979,13 +3997,13 @@
         <v>14230</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3994,13 +4012,13 @@
         <v>23607</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4074,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
